--- a/revit-pcf-exporter/PCF_DEVELOPEMENT_01.xlsx
+++ b/revit-pcf-exporter/PCF_DEVELOPEMENT_01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pcf-exporter\PCF-exporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\shtirlitsDva\Revit-PCF-Exporter\revit-pcf-exporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B436FB2-EAC2-42C3-8849-B477A848DC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMP" sheetId="1" r:id="rId1"/>
@@ -32,8 +33,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="PCF OVERVIEW1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="PCF OVERVIEW1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr sourceFile="E:\Dropbox\Damgaard\Dynamo\PCF OVERVIEW.txt" decimal="," thousands="." tab="0" semicolon="1">
       <textFields count="25">
         <textField/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="195">
   <si>
     <t>ELBW</t>
   </si>
@@ -554,33 +555,6 @@
   </si>
   <si>
     <t>Piping System: Fjernvarme, retur</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_STATUS</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_TRACING_SPEC</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_INSUL_SPEC</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_PAINT_SPEC</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_MISC1</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_MISC2</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_MISC3</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_MISC4</t>
-  </si>
-  <si>
-    <t>PCF_ELEM_MISC5</t>
   </si>
   <si>
     <t>MAIN AREA</t>
@@ -685,7 +659,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,27 +703,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,7 +736,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PCF OVERVIEW" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="PCF OVERVIEW" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,29 +1035,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45:S50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="20.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="68.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1100,7 +1067,7 @@
         <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>111</v>
@@ -1117,38 +1084,11 @@
       <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -1164,17 +1104,8 @@
       <c r="I2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -1190,1233 +1121,972 @@
       <c r="I3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="F31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s">
+        <v>175</v>
+      </c>
+      <c r="J45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s">
         <v>183</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="J47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I48" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s">
+        <v>193</v>
+      </c>
+      <c r="J50" t="s">
         <v>184</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="S48" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="S49" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="S50" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2426,17 +2096,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2498,81 +2168,81 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2581,21 +2251,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -2606,23 +2276,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2639,310 +2309,306 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2950,272 +2616,271 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.85546875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="14.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
         <v>10</v>
       </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>69</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>69</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>69</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>69</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>69</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>69</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>69</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>69</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>69</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>69</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3226,190 +2891,190 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="11" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" style="11" customWidth="1"/>
-    <col min="13" max="19" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.1328125" style="7" customWidth="1"/>
+    <col min="8" max="12" width="12.73046875" style="7" customWidth="1"/>
+    <col min="13" max="19" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>135</v>
       </c>
     </row>
